--- a/hw2/report/time-values.xlsx
+++ b/hw2/report/time-values.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">4x4</t>
   </si>
@@ -55,10 +55,31 @@
     <t xml:space="preserve">4096x4096</t>
   </si>
   <si>
-    <t xml:space="preserve">Sequential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallel</t>
+    <t xml:space="preserve">Sequential (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paralle 4 (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel 8 (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem Size [n]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serial [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speedup</t>
   </si>
 </sst>
 </file>
@@ -68,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -89,6 +110,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,8 +169,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,7 +187,348 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speedup vs Processes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$39,Sheet1!$D$43,Sheet1!$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$39,Sheet1!$E$43,Sheet1!$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.49445696576577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.06382317848411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.52235121535182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="68483382"/>
+        <c:axId val="81902970"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="68483382"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processes (Tasks)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81902970"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="81902970"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Speedup [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68483382"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>322920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>20520</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5448600" y="2295000"/>
+        <a:ext cx="9451080" cy="5010480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -155,15 +536,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,38 +625,368 @@
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="H3" s="0" t="n">
+        <v>0.000123977661132813</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.000513076782226563</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.00211715698242187</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.00849819183349609</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.0333900451660156</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>9.5367431640625E-007</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C4" s="0" t="n">
         <v>9.5367431640625E-007</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>3.09944152832031E-006</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>3.09944152832031E-006</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>7.15255737304688E-006</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>2.09808349609375E-005</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>8.20159912109375E-005</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>0.000390052795410156</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>0.00131106376647949</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>0.00562787055969238</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>0.0209829807281494</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>3.91006469726562E-005</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.000128984451293945</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.000499963760375977</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.00246000289916992</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.00916695594787598</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.000232</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0.000123977661132813</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">B37/C37</f>
+        <v>1.87130486153845</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>0.000805</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0.000513076782226563</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">B38/C38</f>
+        <v>1.56896594795539</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>0.003164</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>0.00211715698242187</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">B39/C39</f>
+        <v>1.49445696576577</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>0.013585</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0.00849819183349609</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">B40/C40</f>
+        <v>1.59857535181237</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>0.051862</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0.0333900451660156</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <f aca="false">B41/C41</f>
+        <v>1.55321742579687</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.000232</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>8.20159912109375E-005</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <f aca="false">B42/C42</f>
+        <v>2.82871665116279</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>0.000805</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0.000390052795410156</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <f aca="false">B43/C43</f>
+        <v>2.06382317848411</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>0.003164</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0.00131106376647949</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <f aca="false">B44/C44</f>
+        <v>2.41330748426987</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>0.013585</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>0.00562787055969238</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">B45/C45</f>
+        <v>2.41387925608981</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>0.051862</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0.0209829807281494</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <f aca="false">B46/C46</f>
+        <v>2.47162215282528</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.000232</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>3.91006469726562E-005</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <f aca="false">B47/C47</f>
+        <v>5.93340565853659</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>0.000805</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>0.000128984451293945</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <f aca="false">B48/C48</f>
+        <v>6.24106232902035</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>0.003164</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>0.000499963760375977</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">B49/C49</f>
+        <v>6.32845868192656</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>0.013585</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>0.00246000289916992</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <f aca="false">B50/C50</f>
+        <v>5.52235121535182</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>0.051862</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>0.00916695594787598</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <f aca="false">B51/C51</f>
+        <v>5.6574941883534</v>
       </c>
     </row>
   </sheetData>
@@ -285,5 +997,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>